--- a/MeetLog/JSP정의서.xlsx
+++ b/MeetLog/JSP정의서.xlsx
@@ -1,9 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangwoolee/MEETLOG/MEETLOG/MeetLog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C1DB9-0755-2E49-8EC6-F7EFEBA0F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="JSP" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1267,21 +1279,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1296,48 +1320,390 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1511,7 +1877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1569,7 +1935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1598,7 +1964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +1993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1656,7 +2022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1685,7 +2051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +2080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1743,7 +2109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1772,7 +2138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +2167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1830,7 +2196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1859,7 +2225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1888,7 +2254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1917,7 +2283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1946,7 +2312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1975,7 +2341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2004,7 +2370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2062,7 +2428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -2091,7 +2457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -2120,7 +2486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2149,7 +2515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2178,7 +2544,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2207,7 +2573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2236,7 +2602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -2265,7 +2631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2294,7 +2660,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -2323,7 +2689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -2352,7 +2718,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -2381,7 +2747,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -2410,7 +2776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2439,7 +2805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -2468,7 +2834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -2497,7 +2863,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -2526,7 +2892,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -2555,7 +2921,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -2584,7 +2950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -2613,7 +2979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -2642,7 +3008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -2671,7 +3037,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -2700,7 +3066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -2729,7 +3095,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -2758,7 +3124,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -2787,7 +3153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -2816,7 +3182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -2845,7 +3211,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -2874,7 +3240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -2903,7 +3269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -2932,7 +3298,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -2961,7 +3327,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -2990,7 +3356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -3019,7 +3385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3048,7 +3414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -3077,7 +3443,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" t="s">
         <v>210</v>
       </c>
@@ -3106,7 +3472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" t="s">
         <v>212</v>
       </c>
@@ -3135,7 +3501,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3164,7 +3530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" t="s">
         <v>221</v>
       </c>
@@ -3193,7 +3559,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" t="s">
         <v>227</v>
       </c>
@@ -3222,7 +3588,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -3251,7 +3617,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -3280,7 +3646,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -3309,7 +3675,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -3338,7 +3704,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
         <v>244</v>
       </c>
@@ -3367,7 +3733,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -3396,7 +3762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
         <v>251</v>
       </c>
@@ -3425,7 +3791,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -3454,7 +3820,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
         <v>257</v>
       </c>
@@ -3483,7 +3849,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
         <v>261</v>
       </c>
@@ -3512,7 +3878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
         <v>265</v>
       </c>
@@ -3541,7 +3907,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" t="s">
         <v>267</v>
       </c>
@@ -3570,7 +3936,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -3599,7 +3965,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -3628,7 +3994,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -3657,7 +4023,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -3686,7 +4052,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" t="s">
         <v>284</v>
       </c>
@@ -3715,7 +4081,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" t="s">
         <v>288</v>
       </c>
@@ -3744,7 +4110,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" t="s">
         <v>291</v>
       </c>
@@ -3773,7 +4139,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -3802,7 +4168,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" t="s">
         <v>295</v>
       </c>
@@ -3831,7 +4197,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" t="s">
         <v>297</v>
       </c>
@@ -3860,7 +4226,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" t="s">
         <v>298</v>
       </c>
@@ -3889,7 +4255,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" t="s">
         <v>300</v>
       </c>
@@ -3918,7 +4284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" t="s">
         <v>303</v>
       </c>
@@ -3947,7 +4313,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
         <v>306</v>
       </c>
@@ -3976,7 +4342,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" t="s">
         <v>308</v>
       </c>
@@ -4005,7 +4371,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" t="s">
         <v>313</v>
       </c>
@@ -4034,7 +4400,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" t="s">
         <v>315</v>
       </c>
@@ -4063,7 +4429,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" t="s">
         <v>319</v>
       </c>
@@ -4092,7 +4458,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -4121,7 +4487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" t="s">
         <v>327</v>
       </c>
@@ -4150,7 +4516,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -4179,7 +4545,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" t="s">
         <v>335</v>
       </c>
@@ -4208,7 +4574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" t="s">
         <v>337</v>
       </c>
@@ -4237,7 +4603,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" t="s">
         <v>339</v>
       </c>
@@ -4266,7 +4632,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" t="s">
         <v>341</v>
       </c>
@@ -4295,7 +4661,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" t="s">
         <v>342</v>
       </c>
@@ -4324,7 +4690,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -4353,7 +4719,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" t="s">
         <v>346</v>
       </c>
@@ -4382,7 +4748,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" t="s">
         <v>351</v>
       </c>
@@ -4411,7 +4777,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" t="s">
         <v>356</v>
       </c>
@@ -4440,7 +4806,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" t="s">
         <v>358</v>
       </c>
@@ -4469,7 +4835,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" t="s">
         <v>361</v>
       </c>
@@ -4498,7 +4864,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" t="s">
         <v>363</v>
       </c>
@@ -4527,7 +4893,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" t="s">
         <v>367</v>
       </c>
@@ -4556,7 +4922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" t="s">
         <v>369</v>
       </c>
@@ -4585,7 +4951,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" t="s">
         <v>371</v>
       </c>
@@ -4614,7 +4980,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
         <v>373</v>
       </c>
@@ -4643,7 +5009,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
         <v>375</v>
       </c>
@@ -4672,7 +5038,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" t="s">
         <v>377</v>
       </c>
@@ -4701,7 +5067,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" t="s">
         <v>379</v>
       </c>
@@ -4730,7 +5096,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -4759,7 +5125,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
         <v>383</v>
       </c>
@@ -4788,7 +5154,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" t="s">
         <v>385</v>
       </c>
@@ -4817,7 +5183,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" t="s">
         <v>387</v>
       </c>
@@ -4846,7 +5212,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" t="s">
         <v>389</v>
       </c>
@@ -4875,7 +5241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" t="s">
         <v>390</v>
       </c>
@@ -4904,7 +5270,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" t="s">
         <v>392</v>
       </c>
@@ -4933,7 +5299,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" t="s">
         <v>394</v>
       </c>
@@ -4962,7 +5328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" t="s">
         <v>395</v>
       </c>
@@ -4991,7 +5357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -5020,7 +5386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" t="s">
         <v>398</v>
       </c>
@@ -5049,7 +5415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" t="s">
         <v>399</v>
       </c>
@@ -5078,7 +5444,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" t="s">
         <v>401</v>
       </c>
@@ -5108,5 +5474,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>